--- a/课设/数据库表.xlsx
+++ b/课设/数据库表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>用户表</t>
   </si>
@@ -40,118 +40,136 @@
     <t>群表</t>
   </si>
   <si>
+    <t>用户-用户表</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
     <t>用户名</t>
   </si>
   <si>
-    <t>主用户</t>
+    <t>用户id</t>
   </si>
   <si>
     <t>群号</t>
   </si>
   <si>
+    <t>所属用户</t>
+  </si>
+  <si>
     <t>Account</t>
   </si>
   <si>
     <t>账号名</t>
   </si>
   <si>
+    <t>空间表id</t>
+  </si>
+  <si>
+    <t>群名</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>是否设置禁入</t>
+  </si>
+  <si>
+    <t>群公告</t>
+  </si>
+  <si>
+    <t>是否拉黑</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>验证密码（不计入表）</t>
+  </si>
+  <si>
+    <t>评论[](不计入表)</t>
+  </si>
+  <si>
+    <t>群-用户[](不计入表)</t>
+  </si>
+  <si>
+    <t>用户消息[]</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>token密钥</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>群消息[]</t>
+  </si>
+  <si>
+    <t>群表id</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>IsDeleted</t>
+  </si>
+  <si>
+    <t>是否被删除</t>
+  </si>
+  <si>
+    <t>IsAdmin</t>
+  </si>
+  <si>
+    <t>是否是管理</t>
+  </si>
+  <si>
+    <t>用户表id</t>
+  </si>
+  <si>
+    <t>用户消息</t>
+  </si>
+  <si>
+    <t>群消息</t>
+  </si>
+  <si>
+    <t>群-用户</t>
+  </si>
+  <si>
+    <t>(用户-用户)表id</t>
+  </si>
+  <si>
+    <t>消息所属用户</t>
+  </si>
+  <si>
     <t>消息</t>
   </si>
   <si>
-    <t>群名</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>点赞数</t>
-  </si>
-  <si>
-    <t>群公告</t>
-  </si>
-  <si>
-    <t>Password2</t>
-  </si>
-  <si>
-    <t>验证密码（不计入表）</t>
-  </si>
-  <si>
-    <t>评论[](不计入表)</t>
-  </si>
-  <si>
-    <t>用户[](不计入表)</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>token密钥</t>
-  </si>
-  <si>
-    <t>空间表id</t>
-  </si>
-  <si>
-    <t>群表id</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>邮件</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>IsDeleted</t>
-  </si>
-  <si>
-    <t>是否被删除</t>
-  </si>
-  <si>
-    <t>IsAdmin</t>
-  </si>
-  <si>
-    <t>是否是管理</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>用户表id</t>
-  </si>
-  <si>
-    <t>聊天之（用户-用户）</t>
-  </si>
-  <si>
-    <t>聊天之（用户-群）</t>
-  </si>
-  <si>
-    <t>群-用户</t>
-  </si>
-  <si>
-    <t>消息所属用户</t>
-  </si>
-  <si>
-    <t>群</t>
-  </si>
-  <si>
     <t>消息发送用户</t>
   </si>
   <si>
     <t>用户</t>
   </si>
   <si>
-    <t>消息接收用户</t>
+    <t>消息创建时间（gorm自带）</t>
   </si>
   <si>
     <t>消息接收群</t>
@@ -160,28 +178,31 @@
     <t>是否管理</t>
   </si>
   <si>
+    <t>用户消息id</t>
+  </si>
+  <si>
     <t>是否被禁言</t>
   </si>
   <si>
-    <t>消息创建时间（gorm自带）</t>
-  </si>
-  <si>
     <t>群-用户id</t>
   </si>
   <si>
-    <t>聊天之（用户-用户）id</t>
-  </si>
-  <si>
-    <t>聊天之（用户-群）id</t>
-  </si>
-  <si>
-    <t>空间-评论表</t>
-  </si>
-  <si>
-    <t>所属用户</t>
+    <t>群消息id</t>
+  </si>
+  <si>
+    <t>评论表</t>
+  </si>
+  <si>
+    <t>空间动态表</t>
+  </si>
+  <si>
+    <t>评论用户id</t>
   </si>
   <si>
     <t>内容</t>
+  </si>
+  <si>
+    <t>空间动态表id</t>
   </si>
   <si>
     <t>空间-评论表id</t>
@@ -800,9 +821,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1134,7 +1158,7 @@
     <col min="11" max="11" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,229 +1171,280 @@
         <v>2</v>
       </c>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
       <c r="K7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11">
       <c r="G20" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3">
+      <c r="F26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
       <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/课设/数据库表.xlsx
+++ b/课设/数据库表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>用户表</t>
   </si>
@@ -49,9 +49,15 @@
     <t>用户名</t>
   </si>
   <si>
+    <t>User_id</t>
+  </si>
+  <si>
     <t>用户id</t>
   </si>
   <si>
+    <t>Gourp_id</t>
+  </si>
+  <si>
     <t>群号</t>
   </si>
   <si>
@@ -64,9 +70,15 @@
     <t>账号名</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>空间表id</t>
   </si>
   <si>
+    <t>Gourp_Name</t>
+  </si>
+  <si>
     <t>群名</t>
   </si>
   <si>
@@ -79,9 +91,15 @@
     <t>密码</t>
   </si>
   <si>
+    <t>Enter_Permit</t>
+  </si>
+  <si>
     <t>是否设置禁入</t>
   </si>
   <si>
+    <t>Gourp_Inform</t>
+  </si>
+  <si>
     <t>群公告</t>
   </si>
   <si>
@@ -94,9 +112,15 @@
     <t>验证密码（不计入表）</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>评论[](不计入表)</t>
   </si>
   <si>
+    <t>Gourp_user</t>
+  </si>
+  <si>
     <t>群-用户[](不计入表)</t>
   </si>
   <si>
@@ -109,7 +133,7 @@
     <t>token密钥</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Gourp_message</t>
   </si>
   <si>
     <t>群消息[]</t>
@@ -154,15 +178,27 @@
     <t>群-用户</t>
   </si>
   <si>
+    <t>Contact</t>
+  </si>
+  <si>
     <t>(用户-用户)表id</t>
   </si>
   <si>
+    <t>Message_owner</t>
+  </si>
+  <si>
     <t>消息所属用户</t>
   </si>
   <si>
+    <t>User_message</t>
+  </si>
+  <si>
     <t>消息</t>
   </si>
   <si>
+    <t>Message_sender</t>
+  </si>
+  <si>
     <t>消息发送用户</t>
   </si>
   <si>
@@ -172,15 +208,24 @@
     <t>消息创建时间（gorm自带）</t>
   </si>
   <si>
+    <t>Message_receiver</t>
+  </si>
+  <si>
     <t>消息接收群</t>
   </si>
   <si>
+    <t>Manage__confirm</t>
+  </si>
+  <si>
     <t>是否管理</t>
   </si>
   <si>
     <t>用户消息id</t>
   </si>
   <si>
+    <t>Is_Gag</t>
+  </si>
+  <si>
     <t>是否被禁言</t>
   </si>
   <si>
@@ -196,7 +241,13 @@
     <t>空间动态表</t>
   </si>
   <si>
+    <t>Userid</t>
+  </si>
+  <si>
     <t>评论用户id</t>
+  </si>
+  <si>
+    <t>Content</t>
   </si>
   <si>
     <t>内容</t>
@@ -821,12 +872,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,7 +1193,7 @@
   <dimension ref="B2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1183,255 +1231,315 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="3:11">
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="7:11">
       <c r="G20" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="F26" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
+      <c r="F26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/课设/数据库表.xlsx
+++ b/课设/数据库表.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
-    <t>用户表</t>
+    <t>用户表-User</t>
   </si>
   <si>
     <t>空间表</t>
@@ -1193,7 +1193,7 @@
   <dimension ref="B2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/课设/数据库表.xlsx
+++ b/课设/数据库表.xlsx
@@ -31,13 +31,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
-    <t>用户表</t>
-  </si>
-  <si>
-    <t>空间表</t>
-  </si>
-  <si>
-    <t>群表</t>
+    <t>User_table   用户表</t>
+  </si>
+  <si>
+    <t>Space_table   空间表</t>
+  </si>
+  <si>
+    <t>Group_table   群表</t>
   </si>
   <si>
     <t>用户-用户表</t>
@@ -169,13 +169,13 @@
     <t>用户表id</t>
   </si>
   <si>
-    <t>用户消息</t>
-  </si>
-  <si>
-    <t>群消息</t>
-  </si>
-  <si>
-    <t>群-用户</t>
+    <t>UserMessage_table  用户消息</t>
+  </si>
+  <si>
+    <t>GroupMessage_table   群消息</t>
+  </si>
+  <si>
+    <t>Group-User_table群-用户</t>
   </si>
   <si>
     <t>Contact</t>
@@ -235,10 +235,10 @@
     <t>群消息id</t>
   </si>
   <si>
-    <t>评论表</t>
-  </si>
-  <si>
-    <t>空间动态表</t>
+    <t>Comennt_table   评论表</t>
+  </si>
+  <si>
+    <t>SpaceTrends_table   空间动态表</t>
   </si>
   <si>
     <t>Userid</t>
@@ -1192,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/课设/数据库表.xlsx
+++ b/课设/数据库表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>User_table   用户表</t>
   </si>
@@ -61,6 +61,9 @@
     <t>群号</t>
   </si>
   <si>
+    <t>User_owner</t>
+  </si>
+  <si>
     <t>所属用户</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>群名</t>
   </si>
   <si>
+    <t>Remarks</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>群公告</t>
   </si>
   <si>
+    <t>Shielded</t>
+  </si>
+  <si>
     <t>是否拉黑</t>
   </si>
   <si>
@@ -122,6 +131,9 @@
   </si>
   <si>
     <t>群-用户[](不计入表)</t>
+  </si>
+  <si>
+    <t>User_massage</t>
   </si>
   <si>
     <t>用户消息[]</t>
@@ -1192,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1243,303 +1255,318 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
       <c r="O3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="7:11">
       <c r="G20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/课设/数据库表.xlsx
+++ b/课设/数据库表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>User_table   用户表</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Group_table   群表</t>
   </si>
   <si>
-    <t>用户-用户表</t>
+    <t>User-User用户-用户表</t>
   </si>
   <si>
     <t>Username</t>
@@ -73,199 +73,217 @@
     <t>账号名</t>
   </si>
   <si>
+    <t>Enter_Permit</t>
+  </si>
+  <si>
+    <t>是否设置禁入</t>
+  </si>
+  <si>
+    <t>Group_Name</t>
+  </si>
+  <si>
+    <t>群名</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>SpaceTrends</t>
+  </si>
+  <si>
+    <t>空间动态[](不计入表)</t>
+  </si>
+  <si>
+    <t>Group_Inform</t>
+  </si>
+  <si>
+    <t>群公告</t>
+  </si>
+  <si>
+    <t>Shielded</t>
+  </si>
+  <si>
+    <t>是否拉黑</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>验证密码（不计入表）</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>空间表id</t>
   </si>
   <si>
-    <t>Gourp_Name</t>
-  </si>
-  <si>
-    <t>群名</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>Enter_Permit</t>
-  </si>
-  <si>
-    <t>是否设置禁入</t>
-  </si>
-  <si>
-    <t>Gourp_Inform</t>
-  </si>
-  <si>
-    <t>群公告</t>
-  </si>
-  <si>
-    <t>Shielded</t>
-  </si>
-  <si>
-    <t>是否拉黑</t>
-  </si>
-  <si>
-    <t>Password2</t>
-  </si>
-  <si>
-    <t>验证密码（不计入表）</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>Group_user</t>
+  </si>
+  <si>
+    <t>群用户[](不计入表)</t>
+  </si>
+  <si>
+    <t>User_massage</t>
+  </si>
+  <si>
+    <t>用户消息[]</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>token密钥</t>
+  </si>
+  <si>
+    <t>Group_message</t>
+  </si>
+  <si>
+    <t>群消息[]</t>
+  </si>
+  <si>
+    <t>用户-用户表id</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>群表id</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>IsDeleted</t>
+  </si>
+  <si>
+    <t>是否被删除</t>
+  </si>
+  <si>
+    <t>IsAdmin</t>
+  </si>
+  <si>
+    <t>是否是管理</t>
+  </si>
+  <si>
+    <t>用户表id</t>
+  </si>
+  <si>
+    <t>UserMessage_table  用户消息</t>
+  </si>
+  <si>
+    <t>GroupMessage_table   群消息</t>
+  </si>
+  <si>
+    <t>GroupUser_table群用户</t>
+  </si>
+  <si>
+    <t>UsertoUserId</t>
+  </si>
+  <si>
+    <t>(用户-用户)表id</t>
+  </si>
+  <si>
+    <t>Message_owner</t>
+  </si>
+  <si>
+    <t>消息所属用户</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>Message_sender</t>
+  </si>
+  <si>
+    <t>消息发送用户</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>消息创建时间（gorm自带）</t>
+  </si>
+  <si>
+    <t>Message_receiver</t>
+  </si>
+  <si>
+    <t>消息接收群</t>
+  </si>
+  <si>
+    <t>是否管理</t>
+  </si>
+  <si>
+    <t>所属用户id</t>
+  </si>
+  <si>
+    <t>Is_Gag</t>
+  </si>
+  <si>
+    <t>是否被禁言</t>
+  </si>
+  <si>
+    <t>用户消息id</t>
+  </si>
+  <si>
+    <t>群-用户id</t>
+  </si>
+  <si>
+    <t>群消息id</t>
+  </si>
+  <si>
+    <t>Commennt_table   评论表</t>
+  </si>
+  <si>
+    <t>SpaceTrends_table   空间动态表</t>
+  </si>
+  <si>
+    <t>Userid</t>
+  </si>
+  <si>
+    <t>评论用户id</t>
+  </si>
+  <si>
+    <t>SpaceTrendsId</t>
+  </si>
+  <si>
+    <t>空间动态表id</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>评论[](不计入表)</t>
   </si>
   <si>
-    <t>Gourp_user</t>
-  </si>
-  <si>
-    <t>群-用户[](不计入表)</t>
-  </si>
-  <si>
-    <t>User_massage</t>
-  </si>
-  <si>
-    <t>用户消息[]</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>token密钥</t>
-  </si>
-  <si>
-    <t>Gourp_message</t>
-  </si>
-  <si>
-    <t>群消息[]</t>
-  </si>
-  <si>
-    <t>群表id</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>邮件</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>IsDeleted</t>
-  </si>
-  <si>
-    <t>是否被删除</t>
-  </si>
-  <si>
-    <t>IsAdmin</t>
-  </si>
-  <si>
-    <t>是否是管理</t>
-  </si>
-  <si>
-    <t>用户表id</t>
-  </si>
-  <si>
-    <t>UserMessage_table  用户消息</t>
-  </si>
-  <si>
-    <t>GroupMessage_table   群消息</t>
-  </si>
-  <si>
-    <t>Group-User_table群-用户</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>(用户-用户)表id</t>
-  </si>
-  <si>
-    <t>Message_owner</t>
-  </si>
-  <si>
-    <t>消息所属用户</t>
-  </si>
-  <si>
-    <t>User_message</t>
-  </si>
-  <si>
-    <t>消息</t>
-  </si>
-  <si>
-    <t>Message_sender</t>
-  </si>
-  <si>
-    <t>消息发送用户</t>
-  </si>
-  <si>
-    <t>用户</t>
-  </si>
-  <si>
-    <t>消息创建时间（gorm自带）</t>
-  </si>
-  <si>
-    <t>Message_receiver</t>
-  </si>
-  <si>
-    <t>消息接收群</t>
-  </si>
-  <si>
-    <t>Manage__confirm</t>
-  </si>
-  <si>
-    <t>是否管理</t>
-  </si>
-  <si>
-    <t>用户消息id</t>
-  </si>
-  <si>
-    <t>Is_Gag</t>
-  </si>
-  <si>
-    <t>是否被禁言</t>
-  </si>
-  <si>
-    <t>群-用户id</t>
-  </si>
-  <si>
-    <t>群消息id</t>
-  </si>
-  <si>
-    <t>Comennt_table   评论表</t>
-  </si>
-  <si>
-    <t>SpaceTrends_table   空间动态表</t>
-  </si>
-  <si>
-    <t>Userid</t>
-  </si>
-  <si>
-    <t>评论用户id</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
     <t>内容</t>
-  </si>
-  <si>
-    <t>空间动态表id</t>
   </si>
   <si>
     <t>空间-评论表id</t>
@@ -1202,20 +1220,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O30"/>
+  <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N2" sqref="N2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="18.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="19.8888888888889" customWidth="1"/>
     <col min="10" max="10" width="15.7777777777778" customWidth="1"/>
     <col min="11" max="11" width="17.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="13.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -1347,12 +1367,6 @@
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" t="s">
         <v>38</v>
       </c>
@@ -1360,7 +1374,7 @@
         <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
         <v>40</v>
@@ -1374,199 +1388,219 @@
         <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="7:11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/课设/数据库表.xlsx
+++ b/课设/数据库表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>User_table   用户表</t>
   </si>
@@ -163,6 +163,12 @@
     <t>群表id</t>
   </si>
   <si>
+    <t>UserTarget</t>
+  </si>
+  <si>
+    <t>接受用户</t>
+  </si>
+  <si>
     <t>Token</t>
   </si>
   <si>
@@ -262,6 +268,9 @@
     <t>SpaceTrends_table   空间动态表</t>
   </si>
   <si>
+    <t>UserApplication用户申请表</t>
+  </si>
+  <si>
     <t>Userid</t>
   </si>
   <si>
@@ -286,7 +295,34 @@
     <t>内容</t>
   </si>
   <si>
+    <t>附加备注</t>
+  </si>
+  <si>
     <t>空间-评论表id</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>附加文本</t>
+  </si>
+  <si>
+    <t>IsAccept</t>
+  </si>
+  <si>
+    <t>是否接受</t>
+  </si>
+  <si>
+    <t>UserMe</t>
+  </si>
+  <si>
+    <t>不计入表（自己信息）</t>
+  </si>
+  <si>
+    <t>UserTo</t>
+  </si>
+  <si>
+    <t>不计入表（对方信息）</t>
   </si>
 </sst>
 </file>
@@ -902,9 +938,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,10 +1259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O31"/>
+  <dimension ref="B2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1233,7 +1272,7 @@
     <col min="6" max="6" width="18.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="19.8888888888889" customWidth="1"/>
     <col min="10" max="10" width="15.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="17.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="20.1111111111111" customWidth="1"/>
     <col min="14" max="14" width="13.5555555555556" customWidth="1"/>
     <col min="15" max="15" width="13.7777777777778" customWidth="1"/>
   </cols>
@@ -1380,7 +1419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>41</v>
       </c>
@@ -1393,29 +1432,35 @@
       <c r="K8" t="s">
         <v>43</v>
       </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -1423,38 +1468,38 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
         <v>43</v>
@@ -1462,59 +1507,59 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -1522,16 +1567,16 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
         <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -1539,72 +1584,122 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
+        <v>78</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>85</v>
+      </c>
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
+        <v>89</v>
+      </c>
+      <c r="J30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
       <c r="C31" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
@@ -1614,6 +1709,7 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/课设/数据库表.xlsx
+++ b/课设/数据库表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>User_table   用户表</t>
   </si>
@@ -241,7 +241,7 @@
     <t>消息接收群</t>
   </si>
   <si>
-    <t>是否管理</t>
+    <t>权限级别（0普通，1管理，2群主）</t>
   </si>
   <si>
     <t>所属用户id</t>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>群消息id</t>
+  </si>
+  <si>
+    <t>MessageKey</t>
+  </si>
+  <si>
+    <t>消息唯一标识</t>
   </si>
   <si>
     <t>Commennt_table   评论表</t>
@@ -938,12 +944,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1261,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="B2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1272,7 +1275,7 @@
     <col min="6" max="6" width="18.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="19.8888888888889" customWidth="1"/>
     <col min="10" max="10" width="15.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="20.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="31.5555555555556" customWidth="1"/>
     <col min="14" max="14" width="13.5555555555556" customWidth="1"/>
     <col min="15" max="15" width="13.7777777777778" customWidth="1"/>
   </cols>
@@ -1587,25 +1590,33 @@
         <v>76</v>
       </c>
     </row>
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="26" spans="2:11">
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1619,16 +1630,16 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
@@ -1639,22 +1650,22 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -1662,13 +1673,13 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="3:11">
@@ -1676,26 +1687,26 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="10:11">
       <c r="J32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="10:11">
       <c r="J33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1734,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1740,7 +1751,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/课设/数据库表.xlsx
+++ b/课设/数据库表.xlsx
@@ -1264,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="B2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1734,7 +1734,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1751,7 +1751,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
